--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812F8EA0-F4CB-4C20-8309-E01D86DD0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6A5EC-A951-437D-9BCD-02932FFD718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,18 +654,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>624455</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6225000366442</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45869</v>
-      </c>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6A5EC-A951-437D-9BCD-02932FFD718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D306E-6B9B-4D3A-AD91-BA96C64ABBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67AE1FB-095B-4F00-930C-0E7C43E16306}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,10 +627,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>636756</v>
+        <v>637031</v>
       </c>
       <c r="B18" s="2">
-        <v>6225000366435</v>
+        <v>6225000366442</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>637031</v>
+        <v>624455</v>
       </c>
       <c r="B19" s="2">
         <v>6225000366442</v>
@@ -652,9 +652,6 @@
       <c r="D19" s="4">
         <v>45869</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D306E-6B9B-4D3A-AD91-BA96C64ABBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="products" sheetId="2" r:id="rId1"/>
+    <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,12 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +47,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,32 +71,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -122,44 +116,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -186,15 +180,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -221,7 +214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -233,423 +225,440 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67AE1FB-095B-4F00-930C-0E7C43E16306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>620174</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>6225000366480</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="D2" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>620176</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>6225000366473</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D3" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>606713</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>6225000366459</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="D4" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>583152</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>6225000366466</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="D5" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>619237</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>6224011259019</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="D6" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>591469</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>6225000366442</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="D7" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>575054</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>6225000366435</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="D8" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>620172</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>6225000366442</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="D9" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>583388</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>6225000366480</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="D10" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>587380</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>6225000366473</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="D11" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>624456</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>6225000366480</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="D12" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>620175</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>6225000366466</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="D13" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>620173</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>6225000366459</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="D14" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>567880</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>6224011259019</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="D15" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>617760</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>6225000366435</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="D16" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>624454</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>6225000366435</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="D17" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>637031</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>6225000366442</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="D18" s="2">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>624455</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>6225000366442</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>45869</v>
       </c>
     </row>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-07 15:17:07</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,6 +668,20 @@
         <v>45869</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA097142-0370-4A4D-AC89-FC289EF1F612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-07 15:17:07</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +447,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +461,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +475,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +489,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +503,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +517,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +531,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +545,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +559,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +573,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +587,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +601,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +615,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +629,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +643,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +657,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +671,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +683,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA097142-0370-4A4D-AC89-FC289EF1F612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-07 15:35:48</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,21 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -447,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -461,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -475,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -489,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -503,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -517,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -531,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -545,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -559,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -573,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -587,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -601,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -615,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -629,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -643,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -657,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -671,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -683,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33E7A1-810E-454D-9C78-F86CE48ED16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-07 15:35:48</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33E7A1-810E-454D-9C78-F86CE48ED16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-07 15:39:12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962128DC-AD80-4C20-960B-F9ECC30B1A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-07 15:39:12</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962128DC-AD80-4C20-960B-F9ECC30B1A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-07 15:42:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EDCC7E-8988-47C4-85BC-3408AFF46CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-07 15:42:00</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EDCC7E-8988-47C4-85BC-3408AFF46CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-07 15:48:25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA380D-AB1B-4A9A-B7F5-DB588F3B31AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-07 15:48:25</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA380D-AB1B-4A9A-B7F5-DB588F3B31AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-08 07:31:39</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD970071-578A-4222-BFC4-076E3637FF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-08 07:31:39</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD970071-578A-4222-BFC4-076E3637FF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-08 07:38:25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C55F755-6AF6-4C3E-AF8C-D8FEFDE81400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-08 07:38:25</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C55F755-6AF6-4C3E-AF8C-D8FEFDE81400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-08 09:10:47</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552192B9-185A-4B7C-9CD5-88069D822C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-08 09:10:47</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552192B9-185A-4B7C-9CD5-88069D822C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-08 09:22:31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DD74D3-8DBF-4981-A60E-CF03B5A6B915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-08 09:22:31</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DD74D3-8DBF-4981-A60E-CF03B5A6B915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-09 09:06:08</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565FA608-F600-46F2-9B20-27E7CB866B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-09 09:06:08</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565FA608-F600-46F2-9B20-27E7CB866B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-09 09:13:21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22722183-A083-469B-954A-0FD76DDB93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-09 09:13:21</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22722183-A083-469B-954A-0FD76DDB93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-09 09:19:57</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A4397-2709-4FEC-A33B-8DFD829E5210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-09 09:19:57</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A4397-2709-4FEC-A33B-8DFD829E5210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-09 09:56:11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00150D-084B-4C43-831C-9BF49EFD6968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -30,21 +36,15 @@
   <si>
     <t>Mustafa</t>
   </si>
-  <si>
-    <t>Mustafa Muhammed</t>
-  </si>
-  <si>
-    <t>2025-10-09 09:56:11</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +405,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -430,7 +442,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -444,7 +456,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -458,7 +470,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -472,7 +484,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -486,7 +498,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -500,7 +512,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -514,7 +526,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -528,7 +540,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -542,7 +554,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -556,7 +568,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -570,7 +582,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -584,7 +596,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -598,7 +610,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -612,7 +624,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -626,7 +638,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -640,7 +652,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -654,7 +666,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -666,20 +678,6 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>636756</v>
-      </c>
-      <c r="B20">
-        <v>6225000366435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/map_ibs_products.xlsx
+++ b/mapping/map_ibs_products.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00150D-084B-4C43-831C-9BF49EFD6968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>dist_itemcode</t>
   </si>
@@ -36,15 +30,21 @@
   <si>
     <t>Mustafa</t>
   </si>
+  <si>
+    <t>Mustafa Muhammed</t>
+  </si>
+  <si>
+    <t>2025-10-09 10:01:09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,21 +108,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -229,10 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,16 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>620174</v>
       </c>
@@ -442,7 +430,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>620176</v>
       </c>
@@ -456,7 +444,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>606713</v>
       </c>
@@ -470,7 +458,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>583152</v>
       </c>
@@ -484,7 +472,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>619237</v>
       </c>
@@ -498,7 +486,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>591469</v>
       </c>
@@ -512,7 +500,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>575054</v>
       </c>
@@ -526,7 +514,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>620172</v>
       </c>
@@ -540,7 +528,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>583388</v>
       </c>
@@ -554,7 +542,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>587380</v>
       </c>
@@ -568,7 +556,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>624456</v>
       </c>
@@ -582,7 +570,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>620175</v>
       </c>
@@ -596,7 +584,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>620173</v>
       </c>
@@ -610,7 +598,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>567880</v>
       </c>
@@ -624,7 +612,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>617760</v>
       </c>
@@ -638,7 +626,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>624454</v>
       </c>
@@ -652,7 +640,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>637031</v>
       </c>
@@ -666,7 +654,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>624455</v>
       </c>
@@ -678,6 +666,20 @@
       </c>
       <c r="D19" s="2">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>636756</v>
+      </c>
+      <c r="B20">
+        <v>6225000366435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
